--- a/data_WSL202526.xlsx
+++ b/data_WSL202526.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="102">
   <si>
     <t>Team1</t>
   </si>
@@ -303,13 +303,122 @@
     <t>#f8d742</t>
   </si>
   <si>
+    <t>sport-match-details-for Arsenal VS Aston Villa</t>
+  </si>
+  <si>
     <t>Final</t>
   </si>
   <si>
-    <t>Stamford Bridge</t>
+    <t>Emirates Stadium</t>
   </si>
   <si>
-    <t>Emirates Stadium</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Sky Sports</t>
+    </r>
+  </si>
+  <si>
+    <t>sport-match-details-for Manchester City VS London City Lionesses</t>
+  </si>
+  <si>
+    <t>Joie Stadium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Sky Sports</t>
+    </r>
+  </si>
+  <si>
+    <t>sport-match-details-for Liverpool VS Manchester United</t>
+  </si>
+  <si>
+    <t>St Helens Stadium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Sky Sports</t>
+    </r>
+  </si>
+  <si>
+    <t>sport-match-details-for Leicester City VS Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>King Power Stadium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Sky Sports</t>
+    </r>
+    <r>
+      <rPr/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>YouTube</t>
+    </r>
+  </si>
+  <si>
+    <t>sport-match-details-for Brighton &amp; Hove Albion VS Everton</t>
+  </si>
+  <si>
+    <t>Broadfield Stadium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Sky Sports</t>
+    </r>
+    <r>
+      <rPr/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>YouTube</t>
+    </r>
+  </si>
+  <si>
+    <t>sport-match-details-for West Ham United VS Chelsea</t>
+  </si>
+  <si>
+    <t>Chigwell Construction Stadium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>BBC</t>
+    </r>
+  </si>
+  <si>
+    <t>Showing selected matches</t>
   </si>
 </sst>
 </file>
@@ -319,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd, mmmm d, yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -334,6 +443,16 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -367,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -402,10 +521,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -819,289 +943,425 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.0</v>
+      </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Arsenal</v>
       </c>
       <c r="F8" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0</v>
+      </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Manchester City</v>
       </c>
       <c r="F9" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.0</v>
+      </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Manchester United</v>
       </c>
       <c r="F10" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Leicester City</v>
       </c>
       <c r="F11" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.0</v>
+      </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Chelsea</v>
       </c>
       <c r="F12" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.0</v>
+      </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Tottenham Hotspur</v>
       </c>
       <c r="F13" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.0</v>
+      </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Manchester City</v>
       </c>
       <c r="F14" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2.0</v>
+      </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>London City Lionesses</v>
       </c>
       <c r="F15" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Chelsea</v>
       </c>
       <c r="F16" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.0</v>
+      </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Brighton &amp; Hove Albion</v>
       </c>
       <c r="F17" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>TIE</v>
       </c>
       <c r="F18" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.0</v>
+      </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>TIE</v>
       </c>
       <c r="F19" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.0</v>
+      </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Manchester City</v>
       </c>
       <c r="F20" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.0</v>
+      </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Manchester United</v>
       </c>
       <c r="F21" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2.0</v>
+      </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Tottenham Hotspur</v>
       </c>
       <c r="F22" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Brighton &amp; Hove Albion</v>
       </c>
       <c r="F23" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4.0</v>
+      </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Chelsea</v>
       </c>
       <c r="F24" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="6" t="b">
         <v>0</v>
@@ -10454,53 +10714,51 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12"/>
+      <c r="G1" s="13">
+        <v>45927.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="G2" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" s="10">
         <v>4.0</v>
       </c>
       <c r="C4" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="10">
         <v>1.0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>4.0</v>
       </c>
       <c r="E4" s="10">
         <v>1.0</v>
@@ -10508,26 +10766,33 @@
       <c r="F4" s="10">
         <v>0.0</v>
       </c>
+      <c r="G4" s="10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10">
@@ -10537,227 +10802,366 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="10">
         <v>0.0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="F6" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="13"/>
+      <c r="G8" s="10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="str">
+        <f t="array" ref="A10:D35">TRANSPOSE(A3:Z6)</f>
+        <v>Arsenal</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>45928.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15">
         <v>0.0</v>
       </c>
-      <c r="E6" s="10">
+      <c r="C12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="15">
         <v>4.0</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G15" s="10">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="G17" s="10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="G18" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="G19" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="G20" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="G21" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="G22" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="G23" s="10">
         <v>0.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="12"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="str">
-        <f t="array" ref="A10:D35">TRANSPOSE(A3:Z6)</f>
-        <v>Chelsea</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="24">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="G24" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="G25" s="10">
         <v>2.0</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="13">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="G26" s="14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="G27" s="10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="G28" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="G29" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="G34" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="G35" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="G51" s="10" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G9"/>
+    <hyperlink r:id="rId2" ref="G18"/>
+    <hyperlink r:id="rId3" ref="G26"/>
+    <hyperlink r:id="rId4" ref="G34"/>
+    <hyperlink r:id="rId5" ref="G42"/>
+    <hyperlink r:id="rId6" ref="G50"/>
+  </hyperlinks>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/data_WSL202526.xlsx
+++ b/data_WSL202526.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
   <si>
     <t>Team1</t>
   </si>
@@ -303,13 +303,7 @@
     <t>#f8d742</t>
   </si>
   <si>
-    <t>sport-match-details-for Arsenal VS Aston Villa</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Emirates Stadium</t>
+    <t>Leigh Sports Village Stadium</t>
   </si>
   <si>
     <r>
@@ -317,11 +311,14 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>Sky Sports</t>
+      <t>BBC</t>
     </r>
   </si>
   <si>
-    <t>sport-match-details-for Manchester City VS London City Lionesses</t>
+    <t>sport-match-details-for Manchester City VS Arsenal</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
   <si>
     <t>Joie Stadium</t>
@@ -336,25 +333,10 @@
     </r>
   </si>
   <si>
-    <t>sport-match-details-for Liverpool VS Manchester United</t>
+    <t>sport-match-details-for West Ham United VS Aston Villa</t>
   </si>
   <si>
-    <t>St Helens Stadium</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Sky Sports</t>
-    </r>
-  </si>
-  <si>
-    <t>sport-match-details-for Leicester City VS Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>King Power Stadium</t>
+    <t>Chigwell Construction Stadium</t>
   </si>
   <si>
     <r>
@@ -377,10 +359,10 @@
     </r>
   </si>
   <si>
-    <t>sport-match-details-for Brighton &amp; Hove Albion VS Everton</t>
+    <t>sport-match-details-for Tottenham Hotspur VS Brighton &amp; Hove Albion</t>
   </si>
   <si>
-    <t>Broadfield Stadium</t>
+    <t>BetWright Stadium</t>
   </si>
   <si>
     <r>
@@ -390,23 +372,12 @@
       </rPr>
       <t>Sky Sports</t>
     </r>
-    <r>
-      <rPr/>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>YouTube</t>
-    </r>
   </si>
   <si>
-    <t>sport-match-details-for West Ham United VS Chelsea</t>
+    <t>sport-match-details-for London City Lionesses VS Liverpool</t>
   </si>
   <si>
-    <t>Chigwell Construction Stadium</t>
+    <t>Copperjax Community Stadium</t>
   </si>
   <si>
     <r>
@@ -414,11 +385,14 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>BBC</t>
+      <t>Sky Sports</t>
     </r>
   </si>
   <si>
-    <t>Showing selected matches</t>
+    <t>sport-match-details-for Leicester City VS Everton</t>
+  </si>
+  <si>
+    <t>King Power Stadium</t>
   </si>
 </sst>
 </file>
@@ -1368,102 +1342,150 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.0</v>
+      </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>TIE</v>
       </c>
       <c r="F25" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2.0</v>
+      </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Manchester City</v>
       </c>
       <c r="F26" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.0</v>
+      </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Aston Villa</v>
       </c>
       <c r="F27" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Tottenham Hotspur</v>
       </c>
       <c r="F28" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E29" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>London City Lionesses</v>
       </c>
       <c r="F29" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.0</v>
+      </c>
       <c r="E30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>TIE</v>
       </c>
       <c r="F30" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="6" t="b">
         <v>0</v>
@@ -10715,9 +10737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12"/>
-      <c r="G1" s="13">
-        <v>45927.0</v>
-      </c>
+      <c r="G1" s="13"/>
     </row>
     <row r="2">
       <c r="G2" s="10" t="s">
@@ -10726,25 +10746,22 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -10752,7 +10769,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="10">
         <v>0.0</v>
@@ -10764,33 +10781,27 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>84</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="I5" s="13"/>
     </row>
@@ -10799,56 +10810,53 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" s="10">
         <v>2.0</v>
       </c>
       <c r="D6" s="10">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="10">
         <v>0.0</v>
       </c>
       <c r="F6" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="G6" s="10">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="G7" s="10" t="s">
-        <v>18</v>
+      <c r="G7" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="13"/>
-      <c r="G8" s="10">
-        <v>1.0</v>
+      <c r="G8" s="13">
+        <v>45934.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="G9" s="14" t="s">
-        <v>85</v>
+      <c r="G9" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="15" t="str">
         <f t="array" ref="A10:D35">TRANSPOSE(A3:Z6)</f>
-        <v>Arsenal</v>
+        <v>Manchester United</v>
       </c>
       <c r="B10" s="15">
         <v>1.0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D10" s="15">
         <v>1.0</v>
       </c>
-      <c r="G10" s="13">
-        <v>45928.0</v>
+      <c r="G10" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -10856,13 +10864,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="15">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>86</v>
@@ -10870,87 +10878,67 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="15">
         <v>0.0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" s="15">
         <v>2.0</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="15">
         <v>1.0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D13" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>87</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B14" s="15">
         <v>1.0</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="15">
         <v>0.0</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="15">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D15" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>10</v>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="G16" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -10958,8 +10946,8 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="G17" s="10">
-        <v>1.0</v>
+      <c r="G17" s="13">
+        <v>45935.0</v>
       </c>
     </row>
     <row r="18">
@@ -10967,7 +10955,7 @@
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="15"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -10977,7 +10965,7 @@
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="G19" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -10986,7 +10974,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="G20" s="10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -10994,44 +10982,32 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="G21" s="10" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="G22" s="10" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="G23" s="10">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="G24" s="10" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="G25" s="10">
-        <v>2.0</v>
+      <c r="G25" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -11039,7 +11015,7 @@
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11049,7 +11025,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="G27" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -11058,7 +11034,7 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="G28" s="10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
@@ -11066,9 +11042,6 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="G29" s="10" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="15"/>
@@ -11094,13 +11067,16 @@
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
+      <c r="G33" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="10" t="s">
         <v>94</v>
       </c>
     </row>
@@ -11110,58 +11086,42 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="G35" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="G36" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="G37" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" s="10" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="G45" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="G50" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="G51" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G9"/>
-    <hyperlink r:id="rId2" ref="G18"/>
-    <hyperlink r:id="rId3" ref="G26"/>
-    <hyperlink r:id="rId4" ref="G34"/>
-    <hyperlink r:id="rId5" ref="G42"/>
-    <hyperlink r:id="rId6" ref="G50"/>
+    <hyperlink r:id="rId1" ref="G7"/>
+    <hyperlink r:id="rId2" ref="G16"/>
+    <hyperlink r:id="rId3" ref="G25"/>
+    <hyperlink r:id="rId4" ref="G33"/>
+    <hyperlink r:id="rId5" ref="G41"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/data_WSL202526.xlsx
+++ b/data_WSL202526.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="100">
   <si>
     <t>Team1</t>
   </si>
@@ -303,78 +303,10 @@
     <t>#f8d742</t>
   </si>
   <si>
-    <t>Leigh Sports Village Stadium</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>BBC</t>
-    </r>
-  </si>
-  <si>
-    <t>sport-match-details-for Manchester City VS Arsenal</t>
+    <t>sport-match-details-for London City Lionesses VS West Ham United</t>
   </si>
   <si>
     <t>Final</t>
-  </si>
-  <si>
-    <t>Joie Stadium</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Sky Sports</t>
-    </r>
-  </si>
-  <si>
-    <t>sport-match-details-for West Ham United VS Aston Villa</t>
-  </si>
-  <si>
-    <t>Chigwell Construction Stadium</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Sky Sports</t>
-    </r>
-    <r>
-      <rPr/>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>YouTube</t>
-    </r>
-  </si>
-  <si>
-    <t>sport-match-details-for Tottenham Hotspur VS Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t>BetWright Stadium</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Sky Sports</t>
-    </r>
-  </si>
-  <si>
-    <t>sport-match-details-for London City Lionesses VS Liverpool</t>
   </si>
   <si>
     <t>Copperjax Community Stadium</t>
@@ -389,10 +321,70 @@
     </r>
   </si>
   <si>
-    <t>sport-match-details-for Leicester City VS Everton</t>
+    <t>sport-match-details-for Everton VS Manchester United</t>
   </si>
   <si>
-    <t>King Power Stadium</t>
+    <t>Hill Dickinson Stadium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Sky Sports</t>
+    </r>
+  </si>
+  <si>
+    <t>sport-match-details-for Chelsea VS Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Kingsmeadow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Sky Sports</t>
+    </r>
+  </si>
+  <si>
+    <t>sport-match-details-for Aston Villa VS Leicester City</t>
+  </si>
+  <si>
+    <t>Villa Park</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Sky Sports</t>
+    </r>
+  </si>
+  <si>
+    <t>sport-match-details-for Arsenal VS Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Emirates Stadium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>BBC</t>
+    </r>
+  </si>
+  <si>
+    <t>sport-match-details-for Liverpool VS Manchester City</t>
+  </si>
+  <si>
+    <t>Anfield</t>
   </si>
 </sst>
 </file>
@@ -499,10 +491,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,102 +1484,150 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E31" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>London City Lionesses</v>
       </c>
       <c r="F31" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4.0</v>
+      </c>
       <c r="E32" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Manchester United</v>
       </c>
       <c r="F32" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Chelsea</v>
       </c>
       <c r="F33" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>TIE</v>
       </c>
       <c r="F34" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.0</v>
+      </c>
       <c r="E35" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Arsenal</v>
       </c>
       <c r="F35" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2.0</v>
+      </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Manchester City</v>
       </c>
       <c r="F36" s="6" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="6" t="b">
         <v>0</v>
@@ -10739,29 +10779,27 @@
       <c r="A1" s="12"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2">
-      <c r="G2" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -10769,13 +10807,13 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="10">
         <v>0.0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1.0</v>
       </c>
       <c r="E4" s="10">
         <v>1.0</v>
@@ -10783,37 +10821,43 @@
       <c r="F4" s="10">
         <v>1.0</v>
       </c>
+      <c r="G4" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B6" s="10">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" s="10">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="10">
         <v>0.0</v>
@@ -10822,305 +10866,345 @@
         <v>0.0</v>
       </c>
       <c r="F6" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="G7" s="10">
         <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" s="14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="13"/>
-      <c r="G8" s="13">
-        <v>45934.0</v>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="G9" s="10" t="s">
-        <v>84</v>
+      <c r="G9" s="10">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="str">
+      <c r="A10" s="14" t="str">
         <f t="array" ref="A10:D35">TRANSPOSE(A3:Z6)</f>
-        <v>Manchester United</v>
-      </c>
-      <c r="B10" s="15">
+        <v>London City Lionesses</v>
+      </c>
+      <c r="B10" s="14">
         <v>1.0</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="14">
         <v>1.0</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="15">
-        <v>2.0</v>
+      <c r="C11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4.0</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14">
         <v>0.0</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="G12" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="15">
+      <c r="B13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="G15" s="10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="G17" s="10">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="14"/>
+      <c r="G18" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="G19" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="G20" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="G21" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="G22" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="G23" s="10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="G24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="15">
+    </row>
+    <row r="25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="G25" s="10">
         <v>0.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="G16" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="G17" s="13">
-        <v>45935.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
-      <c r="G18" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="G19" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="G20" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="G25" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="26">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="G26" s="10" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="G26" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="G27" s="10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="G28" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="G29" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="I31" s="13"/>
     </row>
     <row r="32">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="G33" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="G34" s="10" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="G34" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="G35" s="10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="G36" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="G41" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="15" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" s="10" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" s="10" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G7"/>
-    <hyperlink r:id="rId2" ref="G16"/>
-    <hyperlink r:id="rId3" ref="G25"/>
-    <hyperlink r:id="rId4" ref="G33"/>
-    <hyperlink r:id="rId5" ref="G41"/>
+    <hyperlink r:id="rId1" ref="G10"/>
+    <hyperlink r:id="rId2" ref="G18"/>
+    <hyperlink r:id="rId3" ref="G26"/>
+    <hyperlink r:id="rId4" ref="G34"/>
+    <hyperlink r:id="rId5" ref="G42"/>
   </hyperlinks>
   <drawing r:id="rId6"/>
 </worksheet>
